--- a/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
+++ b/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="forms_GET" sheetId="3" r:id="rId1"/>
-    <sheet name="repaymentPlanTrial" sheetId="1" r:id="rId2"/>
-    <sheet name="products" sheetId="2" r:id="rId3"/>
+    <sheet name="bids" sheetId="4" r:id="rId2"/>
+    <sheet name="repaymentPlanTrial" sheetId="1" r:id="rId3"/>
+    <sheet name="products" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>url</t>
   </si>
@@ -149,13 +150,77 @@
   </si>
   <si>
     <t>status=UNSUBMITTED</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/bids?keyType=${keyType}&amp;keyValue=${keyValue}&amp;status=${status}&amp;productCategory=${productCategory}&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>BIDDING</t>
+  </si>
+  <si>
+    <t>keyType</t>
+  </si>
+  <si>
+    <t>keyValue</t>
+  </si>
+  <si>
+    <t>AO20170412000042</t>
+  </si>
+  <si>
+    <t>productCategory</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>keyType=1产品</t>
+  </si>
+  <si>
+    <t>正常 1页10条keyType=2 申请单编号</t>
+  </si>
+  <si>
+    <t>keyType=3全部</t>
+  </si>
+  <si>
+    <t>keyType传无效</t>
+  </si>
+  <si>
+    <t>productCategory无效</t>
+  </si>
+  <si>
+    <t>sdfasd23411</t>
+  </si>
+  <si>
+    <t>status无效</t>
+  </si>
+  <si>
+    <t>asdfawe2</t>
+  </si>
+  <si>
+    <t>pageSize传0</t>
+  </si>
+  <si>
+    <t>currentPage传0</t>
+  </si>
+  <si>
+    <t>SELECT count(*) totalCount from
+(
+SELECT row_number() over ( order by BIDSTATUS ) rn from trade_borrow_order
+ where BIDSTATUS = 'BIDDING' and APPLYCODE = 'AO20170412000042' and PRODUCTBIG = 'P001'
+) where rn between 1 and 10</t>
+  </si>
+  <si>
+    <t>length(4100)</t>
+  </si>
+  <si>
+    <t>keyType长度为4100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +243,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,7 +295,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -248,6 +319,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -530,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,9 +677,6 @@
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -631,11 +700,8 @@
       <c r="G4" s="4">
         <v>200000</v>
       </c>
-      <c r="H4" s="4">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -646,12 +712,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4">
+        <v>200000</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -662,6 +733,370 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" style="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="4">
+        <v>200406</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1231241</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="13">
+        <v>200400</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4">
+        <v>200406</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4">
+        <v>200406</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="4">
+        <v>100500</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/forms?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;status=${status}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -792,7 +1227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>

--- a/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
+++ b/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="forms_GET" sheetId="3" r:id="rId1"/>
-    <sheet name="bids" sheetId="4" r:id="rId2"/>
+    <sheet name="bids" sheetId="4" r:id="rId1"/>
+    <sheet name="forms_GET" sheetId="3" r:id="rId2"/>
     <sheet name="repaymentPlanTrial" sheetId="1" r:id="rId3"/>
     <sheet name="products" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>url</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>keyType长度为4100</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -600,10 +603,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" activeCellId="1" sqref="C4 C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" style="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="4">
+        <v>200406</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1231241</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="13">
+        <v>200400</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4">
+        <v>200406</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4">
+        <v>200406</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="4">
+        <v>100500</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/forms?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;status=${status}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,376 +1099,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" style="1"/>
-    <col min="5" max="5" width="44.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="4">
-        <v>200000</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="4">
-        <v>200406</v>
-      </c>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1231241</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="13">
-        <v>200400</v>
-      </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="4">
-        <v>200406</v>
-      </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="4">
-        <v>200406</v>
-      </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="4">
-        <v>200000</v>
-      </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="4">
-        <v>200000</v>
-      </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="4">
-        <v>100500</v>
-      </c>
-      <c r="J12" s="12"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/forms?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;status=${status}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1235,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
+++ b/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
@@ -9,13 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="12860" yWindow="460" windowWidth="12740" windowHeight="15460" tabRatio="500" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="bids" sheetId="4" r:id="rId1"/>
-    <sheet name="forms_GET" sheetId="3" r:id="rId2"/>
-    <sheet name="repaymentPlanTrial" sheetId="1" r:id="rId3"/>
-    <sheet name="products" sheetId="2" r:id="rId4"/>
+    <sheet name="bids_bidCode" sheetId="11" r:id="rId2"/>
+    <sheet name="credits_cities" sheetId="5" r:id="rId3"/>
+    <sheet name="credits_cities_cityCode" sheetId="10" r:id="rId4"/>
+    <sheet name="files_GET" sheetId="9" r:id="rId5"/>
+    <sheet name="forms_applyCode" sheetId="12" r:id="rId6"/>
+    <sheet name="forms_userId_productId" sheetId="13" r:id="rId7"/>
+    <sheet name="instalmentPlans_productId" sheetId="7" r:id="rId8"/>
+    <sheet name="products" sheetId="6" r:id="rId9"/>
+    <sheet name="products_productId" sheetId="8" r:id="rId10"/>
+    <sheet name="receipts" sheetId="14" r:id="rId11"/>
+    <sheet name="receipts_applyCode" sheetId="16" r:id="rId12"/>
+    <sheet name="receipts_applyCode_contracts" sheetId="17" r:id="rId13"/>
+    <sheet name="receipts_contracts_contractNo" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="164">
   <si>
     <t>url</t>
   </si>
@@ -35,39 +45,12 @@
     <t>id</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/forms/repayment-plan-trial</t>
-  </si>
-  <si>
     <t>applyCode</t>
   </si>
   <si>
-    <t>loanAmount</t>
-  </si>
-  <si>
-    <t>loanDate</t>
-  </si>
-  <si>
     <t>1459845047000</t>
   </si>
   <si>
-    <t>peroidValue</t>
-  </si>
-  <si>
-    <t>instalmentPlanId</t>
-  </si>
-  <si>
-    <t>402881e75ad9f229015adbcabee90007</t>
-  </si>
-  <si>
-    <t>AO20170330000001</t>
-  </si>
-  <si>
-    <t>Content-Type</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
     <t>clientId</t>
   </si>
   <si>
@@ -80,21 +63,9 @@
     <t>s</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>3b11a56a2ee9c71a3ae554c3c58f6054f3d0d0b45ec94acaf583b90410bca94f2b4b2c563fbbe35bd17439833724db81ddf076f91ebe17d9f881f7f2d66f9203fde33977e161daf521b4f67cb396564c</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>Request-Tyoe</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/products</t>
-  </si>
-  <si>
     <t>currentPage</t>
   </si>
   <si>
@@ -107,51 +78,18 @@
     <t>GET</t>
   </si>
   <si>
-    <t>select * from RECEIPT_SZR_APPLICATIONFORM</t>
-  </si>
-  <si>
     <t>rsp_code</t>
   </si>
   <si>
     <t>sql_data.totalCount</t>
   </si>
   <si>
-    <t>402881e55914ca00015914e3e0ee000a</t>
-  </si>
-  <si>
-    <t>SUBMITTED</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/forms?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;status=${status}</t>
-  </si>
-  <si>
-    <t>UNSUBMITTED</t>
-  </si>
-  <si>
-    <t>3b11a56a2ee9c71a3ae554c3c58f6054cfc27846775f84c595a477f705df665e4a34a176413cc44dce05055cad09d8b17ff06f4ca68207ddbd02d37e03625990fde33977e161daf521b4f67cb396564c</t>
-  </si>
-  <si>
-    <t>SELECT count(*) totalCount from
-(
-SELECT row_number() over ( order by STATUS ) rn from RECEIPT_SZR_APPLICATIONFORM where STATUS = 'SUBMITTED'
-) where rn between 1 and 10</t>
-  </si>
-  <si>
-    <t>0cb4c3d5bc820056146491ed612c7f1a1</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>status=SUBMITTED</t>
-  </si>
-  <si>
-    <t>status=UNSUBMITTED</t>
-  </si>
-  <si>
     <t>http://dev.xxd.com/integrationPlatform/bids?keyType=${keyType}&amp;keyValue=${keyValue}&amp;status=${status}&amp;productCategory=${productCategory}&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
   </si>
   <si>
@@ -164,9 +102,6 @@
     <t>keyValue</t>
   </si>
   <si>
-    <t>AO20170412000042</t>
-  </si>
-  <si>
     <t>productCategory</t>
   </si>
   <si>
@@ -203,27 +138,448 @@
     <t>currentPage传0</t>
   </si>
   <si>
-    <t>SELECT count(*) totalCount from
-(
-SELECT row_number() over ( order by BIDSTATUS ) rn from trade_borrow_order
- where BIDSTATUS = 'BIDDING' and APPLYCODE = 'AO20170412000042' and PRODUCTBIG = 'P001'
-) where rn between 1 and 10</t>
-  </si>
-  <si>
     <t>length(4100)</t>
   </si>
   <si>
     <t>keyType长度为4100</t>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESERVED_FUND</t>
+  </si>
+  <si>
+    <t>type=RESERVED_FUND</t>
+  </si>
+  <si>
+    <t>type=SOCIAL_INSURANCE</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSURANCE</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSURANCE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type传空</t>
+  </si>
+  <si>
+    <t>type无效</t>
+  </si>
+  <si>
+    <t>gdfgsdfg</t>
+  </si>
+  <si>
+    <t>第1页10条数据</t>
+  </si>
+  <si>
+    <t>第1页1条数据</t>
+  </si>
+  <si>
+    <t>第2页1条数据</t>
+  </si>
+  <si>
+    <t>第0页1条数据</t>
+  </si>
+  <si>
+    <t>第1页0条数据</t>
+  </si>
+  <si>
+    <t>pageSize不传</t>
+  </si>
+  <si>
+    <t>type不传</t>
+  </si>
+  <si>
+    <t>pageSize不传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage不传</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/products/instalment-plans/${productId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>productId存在</t>
+  </si>
+  <si>
+    <t>productId为空</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/files?applyCode=${applyCode}&amp;bidCode=test&amp;categoryCode=111&amp;userId=1000&amp;sourceType=${sourceType}&amp;watermarkFlag=WATERMARK_NO&amp;thumbnailFlag=THUMBNAIL_NO&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceType</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>applyCode不传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyCode传空</t>
+  </si>
+  <si>
+    <t>applyCode无效</t>
+  </si>
+  <si>
+    <t>AO20170412000042234352345dszgfsdafg</t>
+  </si>
+  <si>
+    <t>数据不存在</t>
+  </si>
+  <si>
+    <t>sourceType=BACKEND</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKEND</t>
+  </si>
+  <si>
+    <t>sourceType传空</t>
+  </si>
+  <si>
     <t>null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceType不传</t>
+  </si>
+  <si>
+    <t>currentPage传空</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize传空</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cityCode}有效 type=RESERVED_FUND</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityCode</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=SOCIAL_INSURANCE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cityCode}超长</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/bids/${bidCode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidCode</t>
+  </si>
+  <si>
+    <t>{bidCode}传空</t>
+  </si>
+  <si>
+    <t>{bidCode}无效</t>
+  </si>
+  <si>
+    <t>sdfasdf</t>
+  </si>
+  <si>
+    <t>超长</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/forms/${applyCode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyCode超长</t>
+  </si>
+  <si>
+    <t>dfgdf</t>
+  </si>
+  <si>
+    <t>applyCode有效</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/forms/${userId}/${productId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>userId、productId有效</t>
+  </si>
+  <si>
+    <t>userId有效 productId无效</t>
+  </si>
+  <si>
+    <t>userId无效 productId有效</t>
+  </si>
+  <si>
+    <t>userId无效 productId无效</t>
+  </si>
+  <si>
+    <t>userId为空 productId有效</t>
+  </si>
+  <si>
+    <t>userId有效 productId为空</t>
+  </si>
+  <si>
+    <t>productId超长</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/receipts?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;idNo=${idNo}&amp;applyStatus=${applyStatus}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>idNo</t>
+  </si>
+  <si>
+    <t>applyStatus</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>currentPage=0</t>
+  </si>
+  <si>
+    <t>pageSize=0</t>
+  </si>
+  <si>
+    <t>idNo传空</t>
+  </si>
+  <si>
+    <t>applyStatus传空</t>
+  </si>
+  <si>
+    <t>applyStatus无效</t>
+  </si>
+  <si>
+    <t>SUBMITsdfsdf</t>
+  </si>
+  <si>
+    <t>idNo超长</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/receipts/contracts/${contractNo}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractNo</t>
+  </si>
+  <si>
+    <t>XJD170404000020asdfsafasdfw2</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/receipts/${applyCode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyCode存在</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/receipts/${applyCode}/contracts?currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyCode无效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF170331SH0040234523423425234234</t>
+  </si>
+  <si>
+    <t>currentPage=0&amp;pageSize=0</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>productId无效</t>
+  </si>
+  <si>
+    <t>productId不传</t>
+  </si>
+  <si>
+    <t>userId超长</t>
+  </si>
+  <si>
+    <t>contractNo超长</t>
+  </si>
+  <si>
+    <t>sfsadfas1231</t>
+  </si>
+  <si>
+    <t>contractNo无效</t>
+  </si>
+  <si>
+    <t>contractNo有效</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/products/${productId}</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/credits/cities/${cityCode}?type=${type}</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/credits/cities?type=${type}</t>
+  </si>
+  <si>
+    <t>http://dev.xxd.com/integrationPlatform/products?currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>BO20160000000068</t>
+  </si>
+  <si>
+    <t>AO20170414000063</t>
+  </si>
+  <si>
+    <t>2c9093f65bd29951015bd2a0f981000a</t>
+  </si>
+  <si>
+    <t>232700198912067312</t>
+  </si>
+  <si>
+    <t>LOAN_APPLY20170511152658000222</t>
+  </si>
+  <si>
+    <t>XXD170512000020</t>
+  </si>
+  <si>
+    <t>00312900</t>
+  </si>
+  <si>
+    <t>SELECT count(*) totalCount from trade_borrow_order
+ where BIDSTATUS = 'BIDDING' and APPLYCODE = 'LOAN_APPLY20170511152658000222' and PRODUCTBIG = 'P001'</t>
+  </si>
+  <si>
+    <t>type超长</t>
+  </si>
+  <si>
+    <t>cityCode为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityCode不传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>length(4100）</t>
+  </si>
+  <si>
+    <t>len(applyCode)&gt;.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>len(sourceType)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>len(currentPage)&gt;&gt;max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>len(pageSize)&gt;&gt;max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>len(currentPage)&lt;&lt;max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage不传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize不传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>idNo不传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyStatus不传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage超长</t>
+  </si>
+  <si>
+    <t>pageSize超长</t>
+  </si>
+  <si>
+    <t>applyStatus超长</t>
+  </si>
+  <si>
+    <t>applyCode不传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">null </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +609,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -268,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -291,6 +654,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -298,7 +672,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -314,7 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,6 +696,69 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -335,6 +771,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -603,18 +1042,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="C4 C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" style="1"/>
-    <col min="5" max="5" width="44.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="2"/>
+    <col min="2" max="2" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -622,33 +1067,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>40</v>
+      <c r="A2" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -658,71 +1103,71 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>44</v>
+      <c r="G4" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I4" s="4">
         <v>200000</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -731,28 +1176,28 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>44</v>
+      <c r="G5" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4">
         <v>200406</v>
       </c>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -761,28 +1206,28 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>44</v>
+      <c r="G6" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I6" s="4">
         <v>200000</v>
       </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -791,28 +1236,28 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4">
         <v>1231241</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>44</v>
+      <c r="G7" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="13">
+        <v>22</v>
+      </c>
+      <c r="I7" s="12">
         <v>200400</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -821,28 +1266,28 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>44</v>
+      <c r="G8" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4">
         <v>200406</v>
       </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -851,28 +1296,28 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>44</v>
+      <c r="G9" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4">
         <v>200406</v>
       </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -881,28 +1326,28 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>44</v>
+      <c r="G10" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I10" s="4">
         <v>200000</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -911,28 +1356,28 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>44</v>
+      <c r="G11" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4">
         <v>200000</v>
       </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -941,23 +1386,84 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I12" s="4">
         <v>100500</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J14" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/forms?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;status=${status}"/>
   </hyperlinks>
@@ -965,12 +1471,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,40 +1492,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1027,71 +1528,1235 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>200406</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
+      <c r="D6" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="G5" s="4">
         <v>200000</v>
       </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>10</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="12">
+        <v>200400</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="4">
+        <v>200406</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>10</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="4">
+        <v>200406</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="35">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="17">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="36">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="36">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="36">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="36">
+        <v>200400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="37">
+        <v>200406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="37">
+        <v>200406</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200406</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="26">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>200406</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="26">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>200406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="23">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4">
+        <v>200406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4">
+        <v>200406</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="4">
+        <v>200400</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12">
+        <v>100500</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
@@ -1101,235 +2766,1685 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.83203125" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2000.44</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3265.2</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200400</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4">
+        <v>200400</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="4">
+        <v>200400</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+      <c r="B9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4">
+        <v>200400</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="31.1640625" style="1"/>
-    <col min="4" max="4" width="44.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" style="2"/>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="4">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200400</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="12">
+        <v>100500</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200407</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="29">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="29">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="29">
+        <v>200400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>200400</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>200400</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="17">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>200400</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>200400</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>200000</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <v>100500</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="17">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100500</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="12">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4">
+        <v>1000011111</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200406</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100011111</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200406</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100011111</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100011111</v>
+      </c>
+      <c r="E7" s="12">
+        <v>200406</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200406</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>200406</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4">
+        <v>100500</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="4">
+        <v>100500</v>
+      </c>
+      <c r="F11" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>200406</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="32">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="29">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
+++ b/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="460" windowWidth="12740" windowHeight="15460" tabRatio="500" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="33620" yWindow="3800" windowWidth="22860" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="bids" sheetId="4" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/bids?keyType=${keyType}&amp;keyValue=${keyValue}&amp;status=${status}&amp;productCategory=${productCategory}&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
-  </si>
-  <si>
     <t>BIDDING</t>
   </si>
   <si>
@@ -201,10 +198,6 @@
     <t>currentPage不传</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/products/instalment-plans/${productId}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>productId</t>
   </si>
   <si>
@@ -215,10 +208,6 @@
   </si>
   <si>
     <t>aaa</t>
-  </si>
-  <si>
-    <t>http://dev.xxd.com/integrationPlatform/files?applyCode=${applyCode}&amp;bidCode=test&amp;categoryCode=111&amp;userId=1000&amp;sourceType=${sourceType}&amp;watermarkFlag=WATERMARK_NO&amp;thumbnailFlag=THUMBNAIL_NO&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>applyCode</t>
@@ -303,10 +292,6 @@
     <t>{cityCode}超长</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/bids/${bidCode}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>bidCode</t>
   </si>
   <si>
@@ -322,10 +307,6 @@
     <t>超长</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/forms/${applyCode}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>applyCode超长</t>
   </si>
   <si>
@@ -335,10 +316,6 @@
     <t>applyCode有效</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/forms/${userId}/${productId}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -363,10 +340,6 @@
     <t>productId超长</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/receipts?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;idNo=${idNo}&amp;applyStatus=${applyStatus}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>idNo</t>
   </si>
   <si>
@@ -397,25 +370,13 @@
     <t>idNo超长</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/receipts/contracts/${contractNo}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>contractNo</t>
   </si>
   <si>
     <t>XJD170404000020asdfsafasdfw2</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/receipts/${applyCode}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>applyCode存在</t>
-  </si>
-  <si>
-    <t>http://dev.xxd.com/integrationPlatform/receipts/${applyCode}/contracts?currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>applyCode无效</t>
@@ -452,18 +413,6 @@
     <t>contractNo有效</t>
   </si>
   <si>
-    <t>http://dev.xxd.com/integrationPlatform/products/${productId}</t>
-  </si>
-  <si>
-    <t>http://dev.xxd.com/integrationPlatform/credits/cities/${cityCode}?type=${type}</t>
-  </si>
-  <si>
-    <t>http://dev.xxd.com/integrationPlatform/credits/cities?type=${type}</t>
-  </si>
-  <si>
-    <t>http://dev.xxd.com/integrationPlatform/products?currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
-  </si>
-  <si>
     <t>BO20160000000068</t>
   </si>
   <si>
@@ -570,6 +519,48 @@
   <si>
     <t xml:space="preserve">null </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/bids?keyType=${keyType}&amp;keyValue=${keyValue}&amp;status=${status}&amp;productCategory=${productCategory}&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/bids/${bidCode}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/credits/cities?type=${type}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/credits/cities/${cityCode}?type=${type}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/files?applyCode=${applyCode}&amp;bidCode=test&amp;categoryCode=111&amp;userId=1000&amp;sourceType=${sourceType}&amp;watermarkFlag=WATERMARK_NO&amp;thumbnailFlag=THUMBNAIL_NO&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/forms/${applyCode}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/forms/${userId}/${productId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/products/instalment-plans/${productId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/products?currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/products/${productId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/receipts?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;idNo=${idNo}&amp;applyStatus=${applyStatus}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/receipts/${applyCode}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/receipts/${applyCode}/contracts?currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/integrationPlatform/receipts/contracts/${contractNo}</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1072,7 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1115,13 +1106,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>13</v>
@@ -1135,31 +1126,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4">
         <v>200000</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -1167,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1176,16 +1167,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4">
         <v>200406</v>
@@ -1197,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1206,16 +1197,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="4">
         <v>200000</v>
@@ -1227,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -1236,16 +1227,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4">
         <v>1231241</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="12">
         <v>200400</v>
@@ -1257,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -1266,16 +1257,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="4">
         <v>200406</v>
@@ -1287,25 +1278,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="4">
         <v>200406</v>
@@ -1317,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1326,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="4">
         <v>200000</v>
@@ -1347,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1356,16 +1347,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="4">
         <v>200000</v>
@@ -1377,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1386,16 +1377,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="4">
         <v>100500</v>
@@ -1407,25 +1398,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="4">
         <v>200000</v>
@@ -1437,25 +1428,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4">
         <v>200000</v>
@@ -1506,7 +1497,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1531,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -1545,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -1560,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -1575,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
         <v>200406</v>
@@ -1588,7 +1579,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/products/${productId}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1634,7 +1625,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1665,10 +1656,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
@@ -1682,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
@@ -1691,10 +1682,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G4" s="4">
         <v>200000</v>
@@ -1706,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" s="17">
         <v>0</v>
@@ -1715,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G5" s="4">
         <v>200000</v>
@@ -1730,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -1739,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G6" s="4">
         <v>200000</v>
@@ -1754,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -1763,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G7" s="12">
         <v>200400</v>
@@ -1778,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -1787,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="4">
@@ -1800,17 +1791,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17">
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G9" s="4">
         <v>200000</v>
@@ -1822,17 +1813,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G10" s="4">
         <v>200000</v>
@@ -1844,7 +1835,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -1853,10 +1844,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G11" s="4">
         <v>200406</v>
@@ -1868,7 +1859,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -1877,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G12" s="4">
         <v>200406</v>
@@ -1892,19 +1883,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="17">
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G13" s="35">
         <v>200000</v>
@@ -1915,19 +1906,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D14" s="17">
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G14" s="36">
         <v>200000</v>
@@ -1938,19 +1929,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G15" s="36">
         <v>200000</v>
@@ -1961,19 +1952,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G16" s="36">
         <v>200000</v>
@@ -1984,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -1993,10 +1984,10 @@
         <v>10</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G17" s="36">
         <v>200400</v>
@@ -2007,7 +1998,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -2016,10 +2007,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="37">
         <v>200406</v>
@@ -2030,7 +2021,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -2039,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G19" s="37">
         <v>200406</v>
@@ -2051,7 +2042,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/receipts?currentPage=${currentPage}&amp;pageSize=${pageSize}&amp;idNo=${idNo}&amp;applyStatus=${applyStatus}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2095,7 +2086,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2134,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2149,10 +2140,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -2164,10 +2155,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
         <v>200406</v>
@@ -2182,7 +2173,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/receipts/${applyCode}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2225,9 +2216,9 @@
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2272,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -2293,10 +2284,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -2314,16 +2305,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4">
         <v>200000</v>
@@ -2335,13 +2326,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="26">
         <v>10</v>
@@ -2356,10 +2347,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
@@ -2377,10 +2368,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -2398,10 +2389,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2417,10 +2408,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="26">
@@ -2436,10 +2427,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -2456,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="23">
         <v>10</v>
@@ -2476,16 +2467,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4">
         <v>200406</v>
@@ -2494,7 +2485,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/receipts/${applyCode}/contracts?currentPage=${currentPage}&amp;pageSize=${pageSize}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2504,7 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2536,9 +2527,9 @@
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2563,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -2577,10 +2568,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2592,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -2607,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
         <v>200406</v>
@@ -2620,7 +2611,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/receipts/contracts/${contractNo}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2631,7 +2622,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2654,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2688,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -2702,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2717,7 +2708,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="4">
@@ -2730,10 +2721,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4">
         <v>200406</v>
@@ -2745,10 +2736,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12">
         <v>100500</v>
@@ -2758,7 +2749,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/bids/${bidCode}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2801,7 +2792,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2826,7 +2817,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -2840,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2855,10 +2846,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4">
         <v>200000</v>
@@ -2870,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4">
         <v>200400</v>
@@ -2882,10 +2873,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="4">
         <v>200400</v>
@@ -2897,10 +2888,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4">
         <v>200400</v>
@@ -2912,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
         <v>200400</v>
@@ -2924,7 +2915,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/credits/cities?type=${type}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2965,9 +2956,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2992,10 +2983,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>13</v>
@@ -3009,13 +3000,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>200000</v>
@@ -3027,13 +3018,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4">
         <v>200000</v>
@@ -3045,10 +3036,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4">
         <v>200400</v>
@@ -3060,13 +3051,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="12">
         <v>100500</v>
@@ -3078,13 +3069,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4">
         <v>200407</v>
@@ -3096,10 +3087,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="29">
         <v>200000</v>
@@ -3110,13 +3101,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="29">
         <v>200000</v>
@@ -3127,13 +3118,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E11" s="29">
         <v>200400</v>
@@ -3142,7 +3133,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/credits/cities/${cityCode}?type=${type}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3188,7 +3179,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>12</v>
@@ -3213,10 +3204,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>9</v>
@@ -3236,13 +3227,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -3260,10 +3251,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D5" s="17">
         <v>10</v>
@@ -3284,11 +3275,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
@@ -3306,13 +3297,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
@@ -3330,10 +3321,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D8" s="17">
         <v>10</v>
@@ -3354,13 +3345,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -3378,13 +3369,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="17">
         <v>1</v>
@@ -3402,10 +3393,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17">
@@ -3424,13 +3415,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17">
@@ -3446,19 +3437,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" s="24">
         <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G13" s="4">
         <v>200000</v>
@@ -3469,19 +3460,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="G14" s="4">
         <v>200000</v>
@@ -3492,13 +3483,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15" s="17">
         <v>1</v>
@@ -3513,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" s="4">
         <v>200000</v>
@@ -3536,19 +3527,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E17" s="17">
         <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G17" s="4">
         <v>200000</v>
@@ -3559,13 +3550,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
@@ -3583,13 +3574,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
@@ -3606,13 +3597,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="17">
         <v>1</v>
@@ -3629,16 +3620,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="E21" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="17">
         <v>10</v>
@@ -3652,19 +3643,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="E22" s="17">
         <v>1</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>200000</v>
@@ -3673,7 +3664,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/files?applyCode=${applyCode}&amp;bidCode=test&amp;categoryCode=111&amp;userId=1000&amp;sourceType=${sourceType}&amp;watermarkFlag=WATERMARK_NO&amp;thumbnailFlag=THUMBNAIL_NO&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3684,7 +3675,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3716,7 +3707,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3741,7 +3732,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -3755,10 +3746,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4">
         <v>100500</v>
@@ -3770,10 +3761,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -3785,10 +3776,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D6" s="12">
         <v>200000</v>
@@ -3798,7 +3789,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/forms/${applyCode}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3841,7 +3832,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3866,10 +3857,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>13</v>
@@ -3883,13 +3874,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E4" s="4">
         <v>200000</v>
@@ -3901,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3919,13 +3910,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4">
         <v>100011111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4">
         <v>200406</v>
@@ -3937,7 +3928,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4">
         <v>100011111</v>
@@ -3955,10 +3946,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4">
         <v>200406</v>
@@ -3970,7 +3961,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -3985,13 +3976,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4">
         <v>100500</v>
@@ -4003,13 +3994,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4">
         <v>100500</v>
@@ -4019,7 +4010,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/forms/${userId}/${productId}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4060,9 +4051,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -4087,7 +4078,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -4101,10 +4092,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -4116,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -4128,10 +4119,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4">
         <v>200406</v>
@@ -4143,10 +4134,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D7" s="4">
         <v>200406</v>
@@ -4158,10 +4149,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>200406</v>
@@ -4171,7 +4162,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/products/instalment-plans/${productId}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4214,7 +4205,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -4256,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -4274,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -4292,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -4310,7 +4301,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -4328,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -4346,13 +4337,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E9" s="4">
         <v>200000</v>
@@ -4364,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
@@ -4382,10 +4373,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D11" s="32">
         <v>10</v>
@@ -4400,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D12" s="29">
         <v>10</v>
@@ -4414,13 +4405,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>200000</v>
@@ -4431,7 +4422,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4443,7 +4434,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/products?currentPage=${currentPage}&amp;pageSize=${pageSize}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
+++ b/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33620" yWindow="3800" windowWidth="22860" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="bids" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
   <si>
     <t>url</t>
   </si>
@@ -434,10 +434,6 @@
     <t>00312900</t>
   </si>
   <si>
-    <t>SELECT count(*) totalCount from trade_borrow_order
- where BIDSTATUS = 'BIDDING' and APPLYCODE = 'LOAN_APPLY20170511152658000222' and PRODUCTBIG = 'P001'</t>
-  </si>
-  <si>
     <t>type超长</t>
   </si>
   <si>
@@ -517,10 +513,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">null </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>http://${environment}.xxd.com/integrationPlatform/bids?keyType=${keyType}&amp;keyValue=${keyValue}&amp;status=${status}&amp;productCategory=${productCategory}&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
   </si>
   <si>
@@ -561,6 +553,19 @@
   </si>
   <si>
     <t>http://${environment}.xxd.com/integrationPlatform/receipts/contracts/${contractNo}</t>
+  </si>
+  <si>
+    <t>AO20170412000042</t>
+  </si>
+  <si>
+    <t>PKU001</t>
+  </si>
+  <si>
+    <t>SELECT count(*) totalCount from trade_borrow_order
+ where BIDSTATUS = 'BIDDING' and APPLYCODE = 'AO20170412000042' and PRODUCTBIG = 'P001'</t>
+  </si>
+  <si>
+    <t>BW201411200028</t>
   </si>
 </sst>
 </file>
@@ -657,11 +662,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -751,8 +757,9 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1079,7 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1121,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1141,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
@@ -1150,10 +1157,10 @@
         <v>200000</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1173,13 +1180,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4">
-        <v>200406</v>
+        <v>200000</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -1303,7 +1310,7 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1320,11 +1327,9 @@
         <v>17</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>124</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1333,7 +1338,7 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1350,11 +1355,9 @@
         <v>17</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>124</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1396,7 @@
       </c>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1410,11 +1413,9 @@
         <v>17</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>124</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1423,7 +1424,7 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1440,11 +1441,9 @@
         <v>17</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>124</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1452,6 +1451,9 @@
         <v>200000</v>
       </c>
       <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1497,7 +1499,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1590,7 +1592,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,7 +1627,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1883,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>32</v>
@@ -1906,10 +1908,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="17">
         <v>10</v>
@@ -1929,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -1952,13 +1954,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>123</v>
@@ -1975,7 +1977,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -1984,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>98</v>
@@ -1998,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -2021,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -2033,10 +2035,10 @@
         <v>123</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="37">
-        <v>200406</v>
+        <v>130</v>
+      </c>
+      <c r="G19" s="36">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2088,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2183,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2218,7 +2220,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2427,10 +2429,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -2447,7 +2449,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>124</v>
@@ -2459,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="4">
-        <v>200406</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2467,7 +2469,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>124</v>
@@ -2479,7 +2481,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="4">
-        <v>200406</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2531,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2622,7 +2624,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2654,7 +2656,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2696,7 +2698,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2792,7 +2794,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2903,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
@@ -2926,7 +2928,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2958,7 +2960,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3046,7 +3048,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3059,8 +3061,8 @@
       <c r="D7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="12">
-        <v>100500</v>
+      <c r="E7" s="4">
+        <v>200400</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -3087,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>35</v>
@@ -3101,10 +3103,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
         <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>131</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -3118,13 +3120,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="29">
         <v>200400</v>
@@ -3144,7 +3146,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3181,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>12</v>
@@ -3574,13 +3576,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
@@ -3597,7 +3599,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>120</v>
@@ -3620,13 +3622,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>32</v>
@@ -3643,13 +3645,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -3707,7 +3709,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3832,7 +3834,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -4053,7 +4055,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -4205,7 +4207,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -4373,10 +4375,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="32">
         <v>10</v>
@@ -4391,7 +4393,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="29">
         <v>10</v>
@@ -4405,7 +4407,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4422,7 +4424,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14">
         <v>1</v>

--- a/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
+++ b/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
@@ -2186,7 +2186,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
+++ b/testcase/XXD/TIANDUN/IntegrationPlatform/IntegrationPlatform.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="bids" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="165">
   <si>
     <t>url</t>
   </si>
@@ -399,9 +399,6 @@
   </si>
   <si>
     <t>userId超长</t>
-  </si>
-  <si>
-    <t>contractNo超长</t>
   </si>
   <si>
     <t>sfsadfas1231</t>
@@ -669,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -729,7 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1079,7 +1075,7 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1148,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
@@ -1157,7 +1153,7 @@
         <v>200000</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1180,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>21</v>
@@ -1210,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>21</v>
@@ -1240,7 +1236,7 @@
         <v>1231241</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
@@ -1270,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>27</v>
@@ -1300,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>21</v>
@@ -1386,7 +1382,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>21</v>
@@ -1499,7 +1495,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1541,7 +1537,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -1627,7 +1623,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1684,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>98</v>
@@ -1708,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>98</v>
@@ -1732,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>98</v>
@@ -1755,7 +1751,7 @@
       <c r="D7" s="17">
         <v>10</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -1780,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="4">
@@ -1800,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>98</v>
@@ -1822,7 +1818,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>98</v>
@@ -1846,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>104</v>
@@ -1869,7 +1865,7 @@
       <c r="D12" s="17">
         <v>10</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -1885,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>32</v>
@@ -1894,12 +1890,12 @@
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <v>200000</v>
       </c>
     </row>
@@ -1908,21 +1904,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="17">
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <v>200000</v>
       </c>
     </row>
@@ -1931,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -1940,12 +1936,12 @@
         <v>32</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>200000</v>
       </c>
     </row>
@@ -1954,21 +1950,21 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>200000</v>
       </c>
     </row>
@@ -1977,7 +1973,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -1986,12 +1982,12 @@
         <v>10</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <v>200400</v>
       </c>
     </row>
@@ -2000,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -2009,12 +2005,12 @@
         <v>10</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>200406</v>
       </c>
     </row>
@@ -2023,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -2032,12 +2028,12 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="36">
+        <v>129</v>
+      </c>
+      <c r="G19" s="35">
         <v>200000</v>
       </c>
     </row>
@@ -2052,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2084,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2130,7 +2126,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2145,32 +2141,17 @@
         <v>63</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200406</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2183,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2220,7 +2201,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2268,7 +2249,7 @@
         <v>108</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -2310,7 +2291,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
@@ -2331,12 +2312,12 @@
         <v>51</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>10</v>
       </c>
       <c r="F7" s="4">
@@ -2352,7 +2333,7 @@
         <v>111</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
@@ -2367,120 +2348,99 @@
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="23">
-        <v>10</v>
-      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="25">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
         <v>200406</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="4">
-        <v>200000</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="26">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4">
-        <v>200000</v>
-      </c>
-      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="E12" s="23">
         <v>10</v>
       </c>
       <c r="F12" s="4">
-        <v>200406</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="23">
-        <v>10</v>
-      </c>
       <c r="F13" s="4">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4">
         <v>200000</v>
       </c>
     </row>
@@ -2495,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2531,7 +2491,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2570,10 +2530,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2585,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>107</v>
@@ -2594,21 +2554,6 @@
         <v>200406</v>
       </c>
       <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200406</v>
-      </c>
-      <c r="E6" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2656,7 +2601,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2698,7 +2643,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2794,7 +2739,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -2905,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
@@ -2960,7 +2905,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3005,7 +2950,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -3023,7 +2968,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>38</v>
@@ -3041,7 +2986,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4">
         <v>200400</v>
@@ -3056,7 +3001,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>69</v>
@@ -3089,12 +3034,12 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>200000</v>
       </c>
     </row>
@@ -3103,15 +3048,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
         <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>200000</v>
       </c>
     </row>
@@ -3120,15 +3065,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="29">
+        <v>125</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="28">
         <v>200400</v>
       </c>
     </row>
@@ -3181,7 +3126,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>12</v>
@@ -3232,7 +3177,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>58</v>
@@ -3326,7 +3271,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="17">
         <v>10</v>
@@ -3350,7 +3295,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>67</v>
@@ -3374,7 +3319,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>69</v>
@@ -3398,7 +3343,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17">
@@ -3420,7 +3365,7 @@
         <v>71</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>58</v>
@@ -3442,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>58</v>
@@ -3465,7 +3410,7 @@
         <v>51</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>58</v>
@@ -3488,7 +3433,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>58</v>
@@ -3509,7 +3454,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>58</v>
@@ -3532,7 +3477,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>58</v>
@@ -3576,13 +3521,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
@@ -3599,10 +3544,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>32</v>
@@ -3622,13 +3567,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>32</v>
@@ -3645,13 +3590,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -3709,7 +3654,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3781,7 +3726,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="12">
         <v>200000</v>
@@ -3834,7 +3779,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3882,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="4">
         <v>200000</v>
@@ -3918,7 +3863,7 @@
         <v>100011111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4">
         <v>200406</v>
@@ -3951,7 +3896,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="4">
         <v>200406</v>
@@ -4002,7 +3947,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4">
         <v>100500</v>
@@ -4055,7 +4000,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -4097,7 +4042,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -4207,7 +4152,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -4370,32 +4315,32 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="B11" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="31">
         <v>10</v>
       </c>
       <c r="E11">
         <v>200000</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="29">
+        <v>137</v>
+      </c>
+      <c r="D12" s="28">
         <v>10</v>
       </c>
       <c r="E12">
@@ -4407,12 +4352,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E13">
@@ -4424,7 +4369,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14">
         <v>1</v>
